--- a/PR_ NCIC-CODE IN RCI.xlsx
+++ b/PR_ NCIC-CODE IN RCI.xlsx
@@ -5,15 +5,18 @@
   <workbookPr filterPrivacy="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikejacobson/Documents/SEARCH/LENS project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikejacobson/Documents/SEARCH/LENS project/DHS-LENSgit/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="30160" yWindow="-1280" windowWidth="31500" windowHeight="17040"/>
+    <workbookView xWindow="29300" yWindow="1360" windowWidth="31500" windowHeight="17040"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$2714</definedName>
+  </definedNames>
   <calcPr calcId="122211" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -14681,7 +14684,7 @@
   <dimension ref="A1:C2714"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A2" sqref="A2:A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -44540,6 +44543,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C2714"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>